--- a/Excel/cities.xlsx
+++ b/Excel/cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91959\eclipse-workspace\MiniProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4075C7-B25A-4769-9AFA-55B8C11B4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F971C-ED3B-41D6-A144-3BA9A6DA7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t xml:space="preserve">Kolkata </t>
   </si>
   <si>
-    <t>Trivandrum</t>
+    <t>Hospital</t>
   </si>
   <si>
-    <t>Hospital</t>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -387,15 +387,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/cities.xlsx
+++ b/Excel/cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91959\eclipse-workspace\MiniProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F971C-ED3B-41D6-A144-3BA9A6DA7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F25711B-BC76-4CF5-8636-8D1A99D25D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>City Names</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kolkata </t>
-  </si>
-  <si>
-    <t>Hospital</t>
   </si>
   <si>
     <t>Pune</t>
@@ -357,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,32 +366,23 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
